--- a/results/gurobi_cplex_comparison/seed_50_k_15.xlsx
+++ b/results/gurobi_cplex_comparison/seed_50_k_15.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.017</v>
+        <v>0.426</v>
       </c>
       <c r="F2">
-        <v>0.031</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.013</v>
+        <v>0.585</v>
       </c>
       <c r="F3">
-        <v>0.036</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.008999999999999999</v>
+        <v>0.792</v>
       </c>
       <c r="F4">
-        <v>0.022</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.015</v>
+        <v>1.059</v>
       </c>
       <c r="F5">
-        <v>0.033</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.038</v>
+        <v>1.332</v>
       </c>
       <c r="F6">
-        <v>0.038</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.078</v>
+        <v>1.683</v>
       </c>
       <c r="F7">
-        <v>0.445</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.018</v>
+        <v>1.952</v>
       </c>
       <c r="F8">
-        <v>0.035</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.048</v>
+        <v>2.397</v>
       </c>
       <c r="F9">
-        <v>0.132</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.045</v>
+        <v>2.794</v>
       </c>
       <c r="F10">
-        <v>0.058</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.022</v>
+        <v>3.236</v>
       </c>
       <c r="F11">
-        <v>0.042</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.143</v>
+        <v>3.819</v>
       </c>
       <c r="F12">
-        <v>87.08</v>
+        <v>48.576</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.063</v>
+        <v>4.222</v>
       </c>
       <c r="F13">
-        <v>0.098</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.117</v>
+        <v>4.89</v>
       </c>
       <c r="F14">
-        <v>93.801</v>
+        <v>73.096</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.029</v>
+        <v>5.326</v>
       </c>
       <c r="F15">
-        <v>0.062</v>
+        <v>1.161</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.142</v>
+        <v>6.093</v>
       </c>
       <c r="F16">
-        <v>83.77</v>
+        <v>72.76000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.301</v>
+        <v>6.911</v>
       </c>
       <c r="F17">
-        <v>97.875</v>
+        <v>95.56100000000001</v>
       </c>
     </row>
   </sheetData>
